--- a/biology/Zoologie/Charaxes_bupalus/Charaxes_bupalus.xlsx
+++ b/biology/Zoologie/Charaxes_bupalus/Charaxes_bupalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charases bupalus est une espèce d'insectes lépidoptères  appartenant à la famille des Nymphalidae, à la sous-famille des Charaxinae et au genre Charaxes.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes bupalus a été nommé par Otto Staudinger en 1889.
-Pour certains c'est Charases borneensis bupalus une sous-espèce de Charases borneensis[1].
+Pour certains c'est Charases borneensis bupalus une sous-espèce de Charases borneensis.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes bupalus est un grand papillon au dessus roux cuivré avec aux ailes antérieures une large bande marginale marron doublée d'une bande blanche et aux ailes postérieures roux cuivré avec une ligne submarginale de taches marron et une petite queue.
 </t>
@@ -571,12 +587,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est uniquement présent aux Philippines dans l'ile de Palawan.
+</t>
         </is>
       </c>
     </row>
@@ -606,10 +625,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est uniquement présent aux Philippines dans l'ile de Palawan[1].
-Biotope
-Protection
-Pas de protection : les spécimens sont vendus sur internet.
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de protection : les spécimens sont vendus sur internet.
 Sur les autres projets Wikimedia :
 Charaxes bupalus, sur Wikimedia CommonsCharaxes bupalus, sur Wikispecies
 </t>
